--- a/REGULAR/ANGCAYA, JUANITO.xlsx
+++ b/REGULAR/ANGCAYA, JUANITO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD 22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>SL(13-0-0)</t>
+  </si>
+  <si>
+    <t>PICNIC GROVE</t>
   </si>
 </sst>
 </file>
@@ -617,6 +620,12 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,12 +658,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1265,88 +1268,90 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -1361,7 +1366,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -1374,24 +1379,24 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1450,8 +1455,8 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="21"/>
@@ -1472,7 +1477,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>43101</v>
       </c>
@@ -1492,7 +1497,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>43132</v>
       </c>
@@ -1512,7 +1517,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>43160</v>
       </c>
@@ -1532,7 +1537,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>43191</v>
       </c>
@@ -1552,7 +1557,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>43221</v>
       </c>
@@ -1572,7 +1577,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>43252</v>
       </c>
@@ -1592,7 +1597,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>43282</v>
       </c>
@@ -1618,7 +1623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>43313</v>
       </c>
@@ -1638,7 +1643,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>43344</v>
       </c>
@@ -1658,7 +1663,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>43374</v>
       </c>
@@ -1678,7 +1683,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>43405</v>
       </c>
@@ -1698,7 +1703,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>43435</v>
       </c>
@@ -1722,8 +1727,8 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="21"/>
@@ -1740,7 +1745,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>43466</v>
       </c>
@@ -1766,7 +1771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>43497</v>
       </c>
@@ -1786,7 +1791,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>43525</v>
       </c>
@@ -1806,7 +1811,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>43556</v>
       </c>
@@ -1826,7 +1831,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>43586</v>
       </c>
@@ -1846,11 +1851,11 @@
       <c r="H28" s="41"/>
       <c r="I28" s="10"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="62">
+      <c r="K28" s="51">
         <v>43601</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>43617</v>
       </c>
@@ -1870,7 +1875,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>43647</v>
       </c>
@@ -1890,7 +1895,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>43678</v>
       </c>
@@ -1910,7 +1915,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>43709</v>
       </c>
@@ -1930,7 +1935,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>43739</v>
       </c>
@@ -1950,7 +1955,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>43770</v>
       </c>
@@ -1976,7 +1981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>43800</v>
       </c>
@@ -2000,8 +2005,8 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="21"/>
@@ -2018,7 +2023,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>43831</v>
       </c>
@@ -2038,7 +2043,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>43862</v>
       </c>
@@ -2058,7 +2063,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>43891</v>
       </c>
@@ -2078,7 +2083,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>43922</v>
       </c>
@@ -2098,7 +2103,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>43952</v>
       </c>
@@ -2118,7 +2123,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>43983</v>
       </c>
@@ -2138,7 +2143,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>44013</v>
       </c>
@@ -2158,7 +2163,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>44044</v>
       </c>
@@ -2178,7 +2183,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>44075</v>
       </c>
@@ -2198,7 +2203,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>44105</v>
       </c>
@@ -2218,7 +2223,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>44136</v>
       </c>
@@ -2238,7 +2243,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>44166</v>
       </c>
@@ -2264,8 +2269,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="61" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="50" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="21"/>
@@ -2282,7 +2287,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>44197</v>
       </c>
@@ -2302,7 +2307,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>44228</v>
       </c>
@@ -2322,7 +2327,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>44256</v>
       </c>
@@ -2342,7 +2347,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>44287</v>
       </c>
@@ -2362,7 +2367,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>44317</v>
       </c>
@@ -2382,7 +2387,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>44348</v>
       </c>
@@ -2402,7 +2407,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>44378</v>
       </c>
@@ -2422,7 +2427,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>44409</v>
       </c>
@@ -2442,7 +2447,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>44440</v>
       </c>
@@ -2462,7 +2467,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>44470</v>
       </c>
@@ -2482,7 +2487,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>44501</v>
       </c>
@@ -2502,7 +2507,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>44531</v>
       </c>
@@ -2526,8 +2531,8 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="61" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="50" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="21"/>
@@ -2544,7 +2549,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>44562</v>
       </c>
@@ -2564,7 +2569,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>44593</v>
       </c>
@@ -2584,7 +2589,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>44621</v>
       </c>
@@ -2604,7 +2609,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>44652</v>
       </c>
@@ -2630,7 +2635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>44682</v>
       </c>
@@ -2656,7 +2661,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>44713</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="42"/>
       <c r="B69" s="21" t="s">
         <v>64</v>
@@ -2701,7 +2706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>44743</v>
       </c>
@@ -2721,7 +2726,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>44774</v>
       </c>
@@ -2741,7 +2746,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>44805</v>
       </c>
@@ -2761,7 +2766,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
         <v>44835</v>
       </c>
@@ -2781,7 +2786,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
       <c r="B74" s="21"/>
       <c r="C74" s="14"/>
@@ -2797,7 +2802,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
       <c r="B75" s="21"/>
       <c r="C75" s="14"/>
@@ -2813,7 +2818,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>
       <c r="B76" s="21"/>
       <c r="C76" s="14"/>
@@ -2829,7 +2834,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
       <c r="B77" s="21"/>
       <c r="C77" s="14"/>
@@ -2845,7 +2850,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="42"/>
       <c r="B78" s="21"/>
       <c r="C78" s="14"/>
@@ -2861,7 +2866,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="42"/>
       <c r="B79" s="21"/>
       <c r="C79" s="14"/>
@@ -2877,7 +2882,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="42"/>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
@@ -2893,7 +2898,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
@@ -2909,7 +2914,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
       <c r="B82" s="21"/>
       <c r="C82" s="14"/>
@@ -2925,7 +2930,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
@@ -2941,7 +2946,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
@@ -2957,7 +2962,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="42"/>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
@@ -2973,7 +2978,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="42"/>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
@@ -2989,7 +2994,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="42"/>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
@@ -3005,7 +3010,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="42"/>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
@@ -3021,7 +3026,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -3037,7 +3042,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="42"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -3053,7 +3058,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -3069,7 +3074,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="42"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -3085,7 +3090,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="42"/>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -3101,7 +3106,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="42"/>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -3117,7 +3122,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="42"/>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -3133,7 +3138,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="42"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -3149,7 +3154,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -3165,7 +3170,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3181,7 +3186,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3197,7 +3202,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="42"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3213,7 +3218,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="42"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3229,7 +3234,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="42"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3245,7 +3250,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="42"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3261,7 +3266,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="42"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3277,7 +3282,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="42"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3293,7 +3298,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3309,7 +3314,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3325,7 +3330,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3341,7 +3346,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3357,7 +3362,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3373,7 +3378,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3389,7 +3394,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3405,7 +3410,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3421,7 +3426,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3437,7 +3442,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -3453,7 +3458,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="42"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -3469,7 +3474,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="42"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -3485,7 +3490,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="42"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -3501,7 +3506,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="42"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -3517,7 +3522,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="42"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -3533,7 +3538,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="42"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -3549,7 +3554,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="42"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -3565,7 +3570,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="42"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -3581,7 +3586,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -3597,7 +3602,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -3613,7 +3618,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -3629,7 +3634,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -3645,7 +3650,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -3661,7 +3666,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -3677,7 +3682,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="42"/>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -3693,7 +3698,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="43"/>
       <c r="B131" s="16"/>
       <c r="C131" s="44"/>
@@ -3757,34 +3762,34 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -3813,7 +3818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>40.082000000000001</v>
       </c>
@@ -3837,17 +3842,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -3861,14 +3866,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="48"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -3895,7 +3900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -3921,7 +3926,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -3947,7 +3952,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -3973,7 +3978,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -3999,7 +4004,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -4025,7 +4030,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -4051,7 +4056,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -4077,7 +4082,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -4097,7 +4102,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -4117,7 +4122,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -4137,7 +4142,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -4158,7 +4163,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -4179,7 +4184,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -4200,7 +4205,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -4221,7 +4226,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -4242,7 +4247,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -4284,7 +4289,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -4305,7 +4310,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -4326,7 +4331,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -4347,7 +4352,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -4389,7 +4394,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -4410,7 +4415,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -4431,7 +4436,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -4452,7 +4457,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -4473,7 +4478,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -4494,7 +4499,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -4515,7 +4520,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -4536,7 +4541,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -4557,7 +4562,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -4566,7 +4571,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -4575,7 +4580,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -4584,7 +4589,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -4593,7 +4598,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -4602,7 +4607,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -4611,7 +4616,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -4620,7 +4625,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -4629,7 +4634,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -4638,7 +4643,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -4647,7 +4652,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -4656,7 +4661,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -4665,7 +4670,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -4674,7 +4679,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -4683,7 +4688,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -4692,7 +4697,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -4701,7 +4706,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -4710,7 +4715,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -4719,7 +4724,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -4728,7 +4733,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -4737,7 +4742,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -4746,7 +4751,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -4755,7 +4760,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -4764,7 +4769,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -4773,7 +4778,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -4782,7 +4787,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -4791,7 +4796,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -4800,7 +4805,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -4809,7 +4814,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -4818,7 +4823,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ANGCAYA, JUANITO.xlsx
+++ b/REGULAR/ANGCAYA, JUANITO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F627B40-26A5-4A05-9AF5-324D9B537850}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -239,12 +232,21 @@
   </si>
   <si>
     <t>PICNIC GROVE</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>3/13-17/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -936,25 +938,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1261,34 +1263,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A8" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1309,7 +1311,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1330,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1351,7 +1353,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -1366,7 +1368,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -1379,7 +1381,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="52" t="s">
@@ -1396,7 +1398,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1440,7 +1442,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>72.581999999999994</v>
+        <v>73.831999999999994</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1450,12 +1452,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>330.23</v>
+        <v>336.48</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>44</v>
       </c>
@@ -1477,7 +1479,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
         <v>43101</v>
       </c>
@@ -1497,7 +1499,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="42">
         <v>43132</v>
       </c>
@@ -1517,7 +1519,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>43160</v>
       </c>
@@ -1537,7 +1539,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>43191</v>
       </c>
@@ -1557,7 +1559,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>43221</v>
       </c>
@@ -1577,7 +1579,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>43252</v>
       </c>
@@ -1597,7 +1599,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <v>43282</v>
       </c>
@@ -1623,7 +1625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="42">
         <v>43313</v>
       </c>
@@ -1643,7 +1645,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
         <v>43344</v>
       </c>
@@ -1663,7 +1665,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="42">
         <v>43374</v>
       </c>
@@ -1683,7 +1685,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="42">
         <v>43405</v>
       </c>
@@ -1703,7 +1705,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="42">
         <v>43435</v>
       </c>
@@ -1727,7 +1729,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
         <v>48</v>
       </c>
@@ -1745,7 +1747,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="42">
         <v>43466</v>
       </c>
@@ -1771,7 +1773,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="42">
         <v>43497</v>
       </c>
@@ -1791,7 +1793,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="42">
         <v>43525</v>
       </c>
@@ -1811,7 +1813,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="42">
         <v>43556</v>
       </c>
@@ -1831,7 +1833,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="42">
         <v>43586</v>
       </c>
@@ -1855,7 +1857,7 @@
         <v>43601</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="42">
         <v>43617</v>
       </c>
@@ -1875,7 +1877,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="42">
         <v>43647</v>
       </c>
@@ -1895,7 +1897,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="42">
         <v>43678</v>
       </c>
@@ -1915,7 +1917,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="42">
         <v>43709</v>
       </c>
@@ -1935,7 +1937,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="42">
         <v>43739</v>
       </c>
@@ -1955,7 +1957,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="42">
         <v>43770</v>
       </c>
@@ -1981,7 +1983,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
         <v>43800</v>
       </c>
@@ -2005,7 +2007,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
         <v>55</v>
       </c>
@@ -2023,7 +2025,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="42">
         <v>43831</v>
       </c>
@@ -2043,7 +2045,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="42">
         <v>43862</v>
       </c>
@@ -2063,7 +2065,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="42">
         <v>43891</v>
       </c>
@@ -2083,7 +2085,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="42">
         <v>43922</v>
       </c>
@@ -2103,7 +2105,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="42">
         <v>43952</v>
       </c>
@@ -2123,7 +2125,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="42">
         <v>43983</v>
       </c>
@@ -2143,7 +2145,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="42">
         <v>44013</v>
       </c>
@@ -2163,7 +2165,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="42">
         <v>44044</v>
       </c>
@@ -2183,7 +2185,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="42">
         <v>44075</v>
       </c>
@@ -2203,7 +2205,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="42">
         <v>44105</v>
       </c>
@@ -2223,7 +2225,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="42">
         <v>44136</v>
       </c>
@@ -2243,7 +2245,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="42">
         <v>44166</v>
       </c>
@@ -2269,7 +2271,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="50" t="s">
         <v>57</v>
       </c>
@@ -2287,7 +2289,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="42">
         <v>44197</v>
       </c>
@@ -2307,7 +2309,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="42">
         <v>44228</v>
       </c>
@@ -2327,7 +2329,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="42">
         <v>44256</v>
       </c>
@@ -2347,7 +2349,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="42">
         <v>44287</v>
       </c>
@@ -2367,7 +2369,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="42">
         <v>44317</v>
       </c>
@@ -2387,7 +2389,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="42">
         <v>44348</v>
       </c>
@@ -2407,7 +2409,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="42">
         <v>44378</v>
       </c>
@@ -2427,7 +2429,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="42">
         <v>44409</v>
       </c>
@@ -2447,7 +2449,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="42">
         <v>44440</v>
       </c>
@@ -2467,7 +2469,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="42">
         <v>44470</v>
       </c>
@@ -2487,7 +2489,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="42">
         <v>44501</v>
       </c>
@@ -2507,7 +2509,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="42">
         <v>44531</v>
       </c>
@@ -2531,7 +2533,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="50" t="s">
         <v>58</v>
       </c>
@@ -2549,7 +2551,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="42">
         <v>44562</v>
       </c>
@@ -2569,7 +2571,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="42">
         <v>44593</v>
       </c>
@@ -2589,7 +2591,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="42">
         <v>44621</v>
       </c>
@@ -2609,7 +2611,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="42">
         <v>44652</v>
       </c>
@@ -2635,7 +2637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="42">
         <v>44682</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="42">
         <v>44713</v>
       </c>
@@ -2687,7 +2689,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="42"/>
       <c r="B69" s="21" t="s">
         <v>64</v>
@@ -2706,7 +2708,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="42">
         <v>44743</v>
       </c>
@@ -2726,7 +2728,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="42">
         <v>44774</v>
       </c>
@@ -2746,7 +2748,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="42">
         <v>44805</v>
       </c>
@@ -2766,7 +2768,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="42">
         <v>44835</v>
       </c>
@@ -2786,40 +2788,50 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="42">
+        <v>44866</v>
+      </c>
       <c r="B74" s="21"/>
-      <c r="C74" s="14"/>
+      <c r="C74" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="41"/>
       <c r="E74" s="10"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="41"/>
       <c r="I74" s="10"/>
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="42">
+        <v>44896</v>
+      </c>
       <c r="B75" s="21"/>
-      <c r="C75" s="14"/>
+      <c r="C75" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="41"/>
       <c r="E75" s="10"/>
       <c r="F75" s="21"/>
-      <c r="G75" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="41"/>
       <c r="I75" s="10"/>
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="B76" s="21"/>
       <c r="C76" s="14"/>
       <c r="D76" s="41"/>
@@ -2834,56 +2846,76 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="42">
+        <v>44927</v>
+      </c>
       <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="41"/>
       <c r="E77" s="10"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="41"/>
       <c r="I77" s="10"/>
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="42">
+        <v>44958</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="41"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="41"/>
       <c r="I78" s="10"/>
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="41"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="42">
+        <v>44986</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D79" s="41">
+        <v>5</v>
+      </c>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
       <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="K79" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="42">
+        <v>45017</v>
+      </c>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
       <c r="D80" s="41"/>
@@ -2898,8 +2930,10 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="42">
+        <v>45047</v>
+      </c>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
       <c r="D81" s="41"/>
@@ -2914,8 +2948,10 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="42">
+        <v>45078</v>
+      </c>
       <c r="B82" s="21"/>
       <c r="C82" s="14"/>
       <c r="D82" s="41"/>
@@ -2930,8 +2966,10 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="42">
+        <v>45108</v>
+      </c>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
       <c r="D83" s="41"/>
@@ -2946,8 +2984,10 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="42">
+        <v>45139</v>
+      </c>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
       <c r="D84" s="41"/>
@@ -2962,8 +3002,10 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="42">
+        <v>45170</v>
+      </c>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
       <c r="D85" s="41"/>
@@ -2978,8 +3020,10 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="42">
+        <v>45200</v>
+      </c>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
       <c r="D86" s="41"/>
@@ -2994,8 +3038,10 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="42">
+        <v>45231</v>
+      </c>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
       <c r="D87" s="41"/>
@@ -3010,8 +3056,10 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="42">
+        <v>45261</v>
+      </c>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
       <c r="D88" s="41"/>
@@ -3026,7 +3074,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="42"/>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -3042,7 +3090,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="42"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -3058,7 +3106,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="42"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -3074,7 +3122,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="42"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -3090,7 +3138,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="42"/>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -3106,7 +3154,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="42"/>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -3122,7 +3170,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="42"/>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -3138,7 +3186,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="42"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -3154,7 +3202,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="42"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -3170,7 +3218,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="42"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3186,7 +3234,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="42"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3202,7 +3250,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="42"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3218,7 +3266,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="42"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3234,7 +3282,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="42"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3250,7 +3298,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="42"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3266,7 +3314,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="42"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3282,7 +3330,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="42"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3298,7 +3346,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="42"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3314,7 +3362,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="42"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3330,7 +3378,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="42"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3346,7 +3394,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="42"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3362,7 +3410,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="42"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3378,7 +3426,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="42"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3394,7 +3442,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="42"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3410,7 +3458,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="42"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3426,7 +3474,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="42"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3442,7 +3490,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="42"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -3458,7 +3506,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="42"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -3474,7 +3522,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="42"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -3490,7 +3538,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="42"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -3506,7 +3554,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="42"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -3522,7 +3570,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="42"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -3538,7 +3586,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="42"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -3554,7 +3602,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="42"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -3570,7 +3618,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="42"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -3586,7 +3634,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="42"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -3602,7 +3650,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="42"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -3618,7 +3666,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="42"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -3634,7 +3682,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="42"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -3650,7 +3698,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="42"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -3666,7 +3714,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="42"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -3682,7 +3730,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="42"/>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -3698,21 +3746,37 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="43"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="45"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="42"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="41"/>
       <c r="E131" s="10"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="45"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="41"/>
       <c r="I131" s="10"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="16"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="21"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="43"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="45"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="45"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3729,10 +3793,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3755,28 +3819,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -3789,7 +3853,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -3818,7 +3882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>40.082000000000001</v>
       </c>
@@ -3842,17 +3906,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -3873,7 +3937,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -3900,7 +3964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -3926,7 +3990,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -3952,7 +4016,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -3978,7 +4042,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -4004,7 +4068,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -4030,7 +4094,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -4056,7 +4120,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -4082,7 +4146,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -4102,7 +4166,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -4122,7 +4186,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -4142,7 +4206,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -4163,7 +4227,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -4184,7 +4248,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -4205,7 +4269,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -4226,7 +4290,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -4247,7 +4311,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -4268,7 +4332,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -4289,7 +4353,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -4310,7 +4374,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -4331,7 +4395,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -4352,7 +4416,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -4373,7 +4437,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -4394,7 +4458,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -4415,7 +4479,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -4436,7 +4500,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -4457,7 +4521,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -4478,7 +4542,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -4499,7 +4563,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -4520,7 +4584,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -4541,7 +4605,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -4562,7 +4626,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -4571,7 +4635,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -4580,7 +4644,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -4589,7 +4653,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -4598,7 +4662,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -4607,7 +4671,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -4616,7 +4680,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -4625,7 +4689,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -4634,7 +4698,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -4643,7 +4707,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -4652,7 +4716,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -4661,7 +4725,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -4670,7 +4734,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -4679,7 +4743,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -4688,7 +4752,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -4697,7 +4761,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -4706,7 +4770,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -4715,7 +4779,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -4724,7 +4788,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -4733,7 +4797,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -4742,7 +4806,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -4751,7 +4815,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -4760,7 +4824,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -4769,7 +4833,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -4778,7 +4842,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -4787,7 +4851,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -4796,7 +4860,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -4805,7 +4869,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -4814,7 +4878,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -4823,7 +4887,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
